--- a/pass4.xlsx
+++ b/pass4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C98C78-AD4B-4F1F-9A79-1BDDFDC61C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DE24FC-0C4B-450D-B003-EC900C3630AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{802CBF10-FC1B-477D-8076-EDD1DE4B1162}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="292">
   <si>
     <t>Governor Name</t>
   </si>
@@ -909,12 +909,6 @@
   </si>
   <si>
     <t>miniATLAS</t>
-  </si>
-  <si>
-    <t>Vali45467514</t>
-  </si>
-  <si>
-    <t>Thống đốc45449474</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1296,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P276"/>
+  <dimension ref="A1:P264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13268,420 +13262,6 @@
       <c r="N264" s="2"/>
       <c r="O264" s="2"/>
       <c r="P264" s="2"/>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B265" s="2">
-        <v>45467514</v>
-      </c>
-      <c r="C265" s="2">
-        <v>165742</v>
-      </c>
-      <c r="D265" s="2">
-        <v>1584</v>
-      </c>
-      <c r="E265" s="2">
-        <v>0</v>
-      </c>
-      <c r="F265" s="2">
-        <v>242</v>
-      </c>
-      <c r="G265" s="2">
-        <v>576</v>
-      </c>
-      <c r="H265" s="2">
-        <v>96</v>
-      </c>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2">
-        <v>0</v>
-      </c>
-      <c r="K265" s="2">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2">
-        <v>39</v>
-      </c>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2"/>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B266" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C266" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2">
-        <v>0</v>
-      </c>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2">
-        <v>0</v>
-      </c>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2">
-        <v>0</v>
-      </c>
-      <c r="K266" s="2">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2">
-        <v>51</v>
-      </c>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B267" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C267" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2">
-        <v>0</v>
-      </c>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2">
-        <v>0</v>
-      </c>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2">
-        <v>0</v>
-      </c>
-      <c r="K267" s="2">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2">
-        <v>51</v>
-      </c>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B268" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C268" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2">
-        <v>0</v>
-      </c>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2">
-        <v>0</v>
-      </c>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2">
-        <v>0</v>
-      </c>
-      <c r="K268" s="2">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2">
-        <v>51</v>
-      </c>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B269" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C269" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D269" s="2"/>
-      <c r="E269" s="2">
-        <v>0</v>
-      </c>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2">
-        <v>0</v>
-      </c>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2">
-        <v>0</v>
-      </c>
-      <c r="K269" s="2">
-        <v>0</v>
-      </c>
-      <c r="L269" s="2">
-        <v>51</v>
-      </c>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2"/>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B270" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C270" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2">
-        <v>0</v>
-      </c>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2">
-        <v>0</v>
-      </c>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2">
-        <v>0</v>
-      </c>
-      <c r="K270" s="2">
-        <v>0</v>
-      </c>
-      <c r="L270" s="2">
-        <v>51</v>
-      </c>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B271" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C271" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2">
-        <v>0</v>
-      </c>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2">
-        <v>0</v>
-      </c>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2">
-        <v>0</v>
-      </c>
-      <c r="K271" s="2">
-        <v>0</v>
-      </c>
-      <c r="L271" s="2">
-        <v>51</v>
-      </c>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B272" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C272" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2">
-        <v>0</v>
-      </c>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2">
-        <v>0</v>
-      </c>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2">
-        <v>0</v>
-      </c>
-      <c r="K272" s="2">
-        <v>0</v>
-      </c>
-      <c r="L272" s="2">
-        <v>51</v>
-      </c>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2"/>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B273" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C273" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2">
-        <v>0</v>
-      </c>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2">
-        <v>0</v>
-      </c>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2">
-        <v>0</v>
-      </c>
-      <c r="K273" s="2">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2">
-        <v>51</v>
-      </c>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B274" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C274" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2">
-        <v>0</v>
-      </c>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2">
-        <v>0</v>
-      </c>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2">
-        <v>0</v>
-      </c>
-      <c r="K274" s="2">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2">
-        <v>51</v>
-      </c>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2"/>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B275" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C275" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D275" s="2"/>
-      <c r="E275" s="2">
-        <v>0</v>
-      </c>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2">
-        <v>0</v>
-      </c>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2">
-        <v>0</v>
-      </c>
-      <c r="K275" s="2">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2">
-        <v>51</v>
-      </c>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="B276" s="2">
-        <v>45449474</v>
-      </c>
-      <c r="C276" s="2">
-        <v>124246</v>
-      </c>
-      <c r="D276" s="2"/>
-      <c r="E276" s="2">
-        <v>0</v>
-      </c>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2">
-        <v>0</v>
-      </c>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2">
-        <v>0</v>
-      </c>
-      <c r="K276" s="2">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2">
-        <v>51</v>
-      </c>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/pass4.xlsx
+++ b/pass4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_stats\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BADA48D-9A03-46F6-927D-CA8798027A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AAA16-1622-42D7-8497-3B0DC617CD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{3A69CBEA-0CDA-4B04-865D-156793F24807}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="277">
   <si>
     <t>Governor Name</t>
   </si>
@@ -868,13 +868,16 @@
   </si>
   <si>
     <t>dead1662</t>
+  </si>
+  <si>
+    <t>Duboish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -892,6 +895,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFE91E63"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -914,10 +922,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
@@ -1257,7 +1268,9 @@
   </sheetPr>
   <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2293,9 +2306,9 @@
         <v>49731683</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>38</v>
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="B22" s="2">
         <v>48975732</v>

--- a/pass4.xlsx
+++ b/pass4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69AAA16-1622-42D7-8497-3B0DC617CD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18782E8C-24DC-4D65-BDF2-384FA4507E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{3A69CBEA-0CDA-4B04-865D-156793F24807}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="278">
   <si>
     <t>Governor Name</t>
   </si>
@@ -871,13 +871,16 @@
   </si>
   <si>
     <t>Duboish</t>
+  </si>
+  <si>
+    <t>Ɓo乄</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1269,12 +1272,17 @@
   <dimension ref="A1:P276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1382,7 @@
         <v>52185889</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1432,7 @@
         <v>28321791</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1474,7 +1482,7 @@
         <v>32656235</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>13258921</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1574,7 +1582,7 @@
         <v>28064552</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -1624,7 +1632,7 @@
         <v>45327028</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1682,7 @@
         <v>26153929</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -1724,7 +1732,7 @@
         <v>50286348</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1768,7 +1776,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>33861459</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1868,7 +1876,7 @@
         <v>44907797</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16">
       <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>37008616</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>26226467</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>29543418</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2068,7 +2076,7 @@
         <v>14472563</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2112,7 +2120,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>13422791</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -2212,7 +2220,7 @@
         <v>23365</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2256,7 +2264,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2306,7 +2314,7 @@
         <v>49731683</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="3" t="s">
         <v>276</v>
       </c>
@@ -2356,7 +2364,7 @@
         <v>17976825</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -2406,7 +2414,7 @@
         <v>30296391</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>46268923</v>
       </c>
       <c r="C24" s="2">
-        <v>755167368</v>
+        <v>75516736</v>
       </c>
       <c r="D24" s="2">
         <v>4696983858</v>
@@ -2450,7 +2458,7 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -2500,7 +2508,7 @@
         <v>27679566</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="2" t="s">
         <v>44</v>
       </c>
@@ -2550,7 +2558,7 @@
         <v>30338281</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
@@ -2600,7 +2608,7 @@
         <v>18086947</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="2" t="s">
         <v>46</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>19080155</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -2700,7 +2708,7 @@
         <v>30875936</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -2750,7 +2758,7 @@
         <v>14310617</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
@@ -2800,7 +2808,7 @@
         <v>26810359</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="2" t="s">
         <v>50</v>
       </c>
@@ -2850,7 +2858,7 @@
         <v>35766017</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
@@ -2858,7 +2866,7 @@
         <v>113277991</v>
       </c>
       <c r="C33" s="2">
-        <v>755212275</v>
+        <v>75521227</v>
       </c>
       <c r="D33" s="2">
         <v>3573653576</v>
@@ -2900,9 +2908,9 @@
         <v>38427739</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="B34" s="2">
         <v>38161087</v>
@@ -2950,7 +2958,7 @@
         <v>36433788</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -3000,7 +3008,7 @@
         <v>33818177</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -3044,7 +3052,7 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16">
       <c r="A37" s="2" t="s">
         <v>54</v>
       </c>
@@ -3094,7 +3102,7 @@
         <v>19333482</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16">
       <c r="A38" s="2" t="s">
         <v>55</v>
       </c>
@@ -3138,7 +3146,7 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16">
       <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
@@ -3188,7 +3196,7 @@
         <v>13494013</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16">
       <c r="A40" s="2" t="s">
         <v>57</v>
       </c>
@@ -3238,7 +3246,7 @@
         <v>17212223</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>58</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>8779456</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
         <v>59</v>
       </c>
@@ -3332,7 +3340,7 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16">
       <c r="A43" s="2" t="s">
         <v>60</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>25900072</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16">
       <c r="A44" s="2" t="s">
         <v>61</v>
       </c>
@@ -3432,7 +3440,7 @@
         <v>22719678</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16">
       <c r="A45" s="2" t="s">
         <v>62</v>
       </c>
@@ -3482,7 +3490,7 @@
         <v>8422654</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>56524653</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
         <v>64</v>
       </c>
@@ -3574,7 +3582,7 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -3622,7 +3630,7 @@
         <v>1776776</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16">
       <c r="A49" s="2" t="s">
         <v>67</v>
       </c>
@@ -3670,7 +3678,7 @@
         <v>5447741</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="2" t="s">
         <v>68</v>
       </c>
@@ -3720,7 +3728,7 @@
         <v>16476554</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16">
       <c r="A51" s="2" t="s">
         <v>70</v>
       </c>
@@ -3768,7 +3776,7 @@
         <v>7429445</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16">
       <c r="A52" s="2" t="s">
         <v>71</v>
       </c>
@@ -3810,7 +3818,7 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16">
       <c r="A53" s="2" t="s">
         <v>72</v>
       </c>
@@ -3860,7 +3868,7 @@
         <v>1860310</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16">
       <c r="A54" s="2" t="s">
         <v>73</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>4041773</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
         <v>74</v>
       </c>
@@ -3950,7 +3958,7 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16">
       <c r="A56" s="2" t="s">
         <v>75</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>8598105</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16">
       <c r="A57" s="2" t="s">
         <v>76</v>
       </c>
@@ -4050,7 +4058,7 @@
         <v>33596987</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16">
       <c r="A58" s="2" t="s">
         <v>76</v>
       </c>
@@ -4094,7 +4102,7 @@
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16">
       <c r="A59" s="2" t="s">
         <v>77</v>
       </c>
@@ -4144,7 +4152,7 @@
         <v>9121881</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16">
       <c r="A60" s="2" t="s">
         <v>78</v>
       </c>
@@ -4194,7 +4202,7 @@
         <v>3212745</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16">
       <c r="A61" s="2" t="s">
         <v>79</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>946929</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16">
       <c r="A62" s="2" t="s">
         <v>80</v>
       </c>
@@ -4288,7 +4296,7 @@
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16">
       <c r="A63" s="2" t="s">
         <v>81</v>
       </c>
@@ -4338,7 +4346,7 @@
         <v>1415172</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16">
       <c r="A64" s="2" t="s">
         <v>82</v>
       </c>
@@ -4388,7 +4396,7 @@
         <v>5327179</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16">
       <c r="A65" s="2" t="s">
         <v>83</v>
       </c>
@@ -4438,7 +4446,7 @@
         <v>176988</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16">
       <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>793745</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16">
       <c r="A67" s="2" t="s">
         <v>85</v>
       </c>
@@ -4528,7 +4536,7 @@
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16">
       <c r="A68" s="2" t="s">
         <v>87</v>
       </c>
@@ -4578,7 +4586,7 @@
         <v>4276967</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16">
       <c r="A69" s="2" t="s">
         <v>88</v>
       </c>
@@ -4628,7 +4636,7 @@
         <v>1054114</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16">
       <c r="A70" s="2" t="s">
         <v>89</v>
       </c>
@@ -4678,7 +4686,7 @@
         <v>4854957</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16">
       <c r="A71" s="2" t="s">
         <v>90</v>
       </c>
@@ -4722,7 +4730,7 @@
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16">
       <c r="A72" s="2" t="s">
         <v>92</v>
       </c>
@@ -4772,7 +4780,7 @@
         <v>5384378</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16">
       <c r="A73" s="2" t="s">
         <v>93</v>
       </c>
@@ -4822,7 +4830,7 @@
         <v>433218</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16">
       <c r="A74" s="2" t="s">
         <v>94</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>939313</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16">
       <c r="A75" s="2" t="s">
         <v>95</v>
       </c>
@@ -4922,7 +4930,7 @@
         <v>1085221</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16">
       <c r="A76" s="2" t="s">
         <v>96</v>
       </c>
@@ -4972,7 +4980,7 @@
         <v>8951280</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16">
       <c r="A77" s="2" t="s">
         <v>97</v>
       </c>
@@ -5016,7 +5024,7 @@
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16">
       <c r="A78" s="2" t="s">
         <v>98</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>10204066</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16">
       <c r="A79" s="2" t="s">
         <v>99</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>631531</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16">
       <c r="A80" s="2" t="s">
         <v>100</v>
       </c>
@@ -5162,7 +5170,7 @@
         <v>397815</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16">
       <c r="A81" s="2" t="s">
         <v>101</v>
       </c>
@@ -5212,7 +5220,7 @@
         <v>472210</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16">
       <c r="A82" s="2" t="s">
         <v>102</v>
       </c>
@@ -5262,7 +5270,7 @@
         <v>98683</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16">
       <c r="A83" s="2" t="s">
         <v>103</v>
       </c>
@@ -5310,7 +5318,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16">
       <c r="A84" s="2" t="s">
         <v>104</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>2199614</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16">
       <c r="A85" s="2" t="s">
         <v>105</v>
       </c>
@@ -5408,7 +5416,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16">
       <c r="A86" s="2" t="s">
         <v>106</v>
       </c>
@@ -5458,7 +5466,7 @@
         <v>515742</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16">
       <c r="A87" s="2" t="s">
         <v>107</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>239248</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16">
       <c r="A88" s="2" t="s">
         <v>108</v>
       </c>
@@ -5550,7 +5558,7 @@
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16">
       <c r="A89" s="2" t="s">
         <v>109</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>570264</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16">
       <c r="A90" s="2" t="s">
         <v>110</v>
       </c>
@@ -5648,7 +5656,7 @@
         <v>442584</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16">
       <c r="A91" s="2" t="s">
         <v>112</v>
       </c>
@@ -5698,7 +5706,7 @@
         <v>1864811</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16">
       <c r="A92" s="2" t="s">
         <v>113</v>
       </c>
@@ -5748,7 +5756,7 @@
         <v>2406451</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16">
       <c r="A93" s="2" t="s">
         <v>114</v>
       </c>
@@ -5798,7 +5806,7 @@
         <v>1981297</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16">
       <c r="A94" s="2" t="s">
         <v>115</v>
       </c>
@@ -5848,7 +5856,7 @@
         <v>1452692</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16">
       <c r="A95" s="2" t="s">
         <v>116</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16">
       <c r="A96" s="2" t="s">
         <v>117</v>
       </c>
@@ -5946,7 +5954,7 @@
         <v>642407</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16">
       <c r="A97" s="2" t="s">
         <v>118</v>
       </c>
@@ -5996,7 +6004,7 @@
         <v>2648693</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16">
       <c r="A98" s="2" t="s">
         <v>119</v>
       </c>
@@ -6046,7 +6054,7 @@
         <v>854188</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16">
       <c r="A99" s="2" t="s">
         <v>120</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>1254228</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16">
       <c r="A100" s="2" t="s">
         <v>121</v>
       </c>
@@ -6146,7 +6154,7 @@
         <v>1620821</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16">
       <c r="A101" s="2" t="s">
         <v>122</v>
       </c>
@@ -6188,7 +6196,7 @@
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16">
       <c r="A102" s="2" t="s">
         <v>123</v>
       </c>
@@ -6232,7 +6240,7 @@
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16">
       <c r="A103" s="2" t="s">
         <v>124</v>
       </c>
@@ -6282,7 +6290,7 @@
         <v>2672827</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16">
       <c r="A104" s="2" t="s">
         <v>125</v>
       </c>
@@ -6332,7 +6340,7 @@
         <v>317775</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16">
       <c r="A105" s="2" t="s">
         <v>126</v>
       </c>
@@ -6376,7 +6384,7 @@
         <v>36633</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16">
       <c r="A106" s="2" t="s">
         <v>127</v>
       </c>
@@ -6426,7 +6434,7 @@
         <v>919712</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16">
       <c r="A107" s="2" t="s">
         <v>129</v>
       </c>
@@ -6474,7 +6482,7 @@
         <v>60598</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16">
       <c r="A108" s="2" t="s">
         <v>130</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>1254153</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16">
       <c r="A109" s="2" t="s">
         <v>131</v>
       </c>
@@ -6572,7 +6580,7 @@
         <v>140956</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16">
       <c r="A110" s="2" t="s">
         <v>133</v>
       </c>
@@ -6622,7 +6630,7 @@
         <v>653855</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16">
       <c r="A111" s="2" t="s">
         <v>134</v>
       </c>
@@ -6672,7 +6680,7 @@
         <v>554969</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16">
       <c r="A112" s="2" t="s">
         <v>135</v>
       </c>
@@ -6716,7 +6724,7 @@
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16">
       <c r="A113" s="2" t="s">
         <v>136</v>
       </c>
@@ -6766,7 +6774,7 @@
         <v>711163</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16">
       <c r="A114" s="2" t="s">
         <v>137</v>
       </c>
@@ -6812,7 +6820,7 @@
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16">
       <c r="A115" s="2" t="s">
         <v>138</v>
       </c>
@@ -6862,7 +6870,7 @@
         <v>2775503</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16">
       <c r="A116" s="2" t="s">
         <v>139</v>
       </c>
@@ -6912,7 +6920,7 @@
         <v>588289</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16">
       <c r="A117" s="2" t="s">
         <v>140</v>
       </c>
@@ -6962,7 +6970,7 @@
         <v>40462</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16">
       <c r="A118" s="2" t="s">
         <v>141</v>
       </c>
@@ -7012,7 +7020,7 @@
         <v>557739</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16">
       <c r="A119" s="2" t="s">
         <v>142</v>
       </c>
@@ -7060,7 +7068,7 @@
         <v>31555</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16">
       <c r="A120" s="2" t="s">
         <v>143</v>
       </c>
@@ -7110,7 +7118,7 @@
         <v>1611799</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16">
       <c r="A121" s="2" t="s">
         <v>144</v>
       </c>
@@ -7160,7 +7168,7 @@
         <v>3416215</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16">
       <c r="A122" s="2" t="s">
         <v>145</v>
       </c>
@@ -7204,7 +7212,7 @@
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16">
       <c r="A123" s="2" t="s">
         <v>146</v>
       </c>
@@ -7252,7 +7260,7 @@
         <v>313641</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16">
       <c r="A124" s="2" t="s">
         <v>147</v>
       </c>
@@ -7302,7 +7310,7 @@
         <v>702565</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16">
       <c r="A125" s="2" t="s">
         <v>148</v>
       </c>
@@ -7350,7 +7358,7 @@
         <v>274401</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16">
       <c r="A126" s="2" t="s">
         <v>149</v>
       </c>
@@ -7396,7 +7404,7 @@
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16">
       <c r="A127" s="2" t="s">
         <v>150</v>
       </c>
@@ -7440,7 +7448,7 @@
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16">
       <c r="A128" s="2" t="s">
         <v>151</v>
       </c>
@@ -7484,7 +7492,7 @@
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16">
       <c r="A129" s="2" t="s">
         <v>152</v>
       </c>
@@ -7532,7 +7540,7 @@
         <v>287755</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16">
       <c r="A130" s="2" t="s">
         <v>153</v>
       </c>
@@ -7574,7 +7582,7 @@
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16">
       <c r="A131" s="2" t="s">
         <v>154</v>
       </c>
@@ -7622,7 +7630,7 @@
         <v>159500</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16">
       <c r="A132" s="2" t="s">
         <v>155</v>
       </c>
@@ -7672,7 +7680,7 @@
         <v>131866</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16">
       <c r="A133" s="2" t="s">
         <v>156</v>
       </c>
@@ -7722,7 +7730,7 @@
         <v>22807</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16">
       <c r="A134" s="2" t="s">
         <v>157</v>
       </c>
@@ -7770,7 +7778,7 @@
         <v>171404</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16">
       <c r="A135" s="2" t="s">
         <v>158</v>
       </c>
@@ -7818,7 +7826,7 @@
         <v>549965</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16">
       <c r="A136" s="2" t="s">
         <v>159</v>
       </c>
@@ -7862,7 +7870,7 @@
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16">
       <c r="A137" s="2" t="s">
         <v>160</v>
       </c>
@@ -7912,7 +7920,7 @@
         <v>933774</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16">
       <c r="A138" s="2" t="s">
         <v>161</v>
       </c>
@@ -7956,7 +7964,7 @@
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16">
       <c r="A139" s="2" t="s">
         <v>163</v>
       </c>
@@ -8000,7 +8008,7 @@
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16">
       <c r="A140" s="2" t="s">
         <v>164</v>
       </c>
@@ -8050,7 +8058,7 @@
         <v>564576</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16">
       <c r="A141" s="2" t="s">
         <v>165</v>
       </c>
@@ -8094,7 +8102,7 @@
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16">
       <c r="A142" s="2" t="s">
         <v>166</v>
       </c>
@@ -8138,7 +8146,7 @@
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16">
       <c r="A143" s="2" t="s">
         <v>167</v>
       </c>
@@ -8188,7 +8196,7 @@
         <v>256222</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16">
       <c r="A144" s="2" t="s">
         <v>168</v>
       </c>
@@ -8232,7 +8240,7 @@
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16">
       <c r="A145" s="2" t="s">
         <v>169</v>
       </c>
@@ -8276,7 +8284,7 @@
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16">
       <c r="A146" s="2" t="s">
         <v>171</v>
       </c>
@@ -8326,7 +8334,7 @@
         <v>257939</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16">
       <c r="A147" s="2" t="s">
         <v>172</v>
       </c>
@@ -8370,7 +8378,7 @@
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16">
       <c r="A148" s="2" t="s">
         <v>172</v>
       </c>
@@ -8420,7 +8428,7 @@
         <v>470836</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16">
       <c r="A149" s="2" t="s">
         <v>173</v>
       </c>
@@ -8468,7 +8476,7 @@
         <v>154043</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16">
       <c r="A150" s="2" t="s">
         <v>174</v>
       </c>
@@ -8512,7 +8520,7 @@
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16">
       <c r="A151" s="2" t="s">
         <v>176</v>
       </c>
@@ -8556,7 +8564,7 @@
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16">
       <c r="A152" s="2" t="s">
         <v>176</v>
       </c>
@@ -8606,7 +8614,7 @@
         <v>966593</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16">
       <c r="A153" s="2" t="s">
         <v>177</v>
       </c>
@@ -8654,7 +8662,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16">
       <c r="A154" s="2" t="s">
         <v>178</v>
       </c>
@@ -8704,7 +8712,7 @@
         <v>1510812</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16">
       <c r="A155" s="2" t="s">
         <v>179</v>
       </c>
@@ -8754,7 +8762,7 @@
         <v>220424</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16">
       <c r="A156" s="2" t="s">
         <v>179</v>
       </c>
@@ -8798,7 +8806,7 @@
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16">
       <c r="A157" s="2" t="s">
         <v>180</v>
       </c>
@@ -8842,7 +8850,7 @@
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16">
       <c r="A158" s="2" t="s">
         <v>181</v>
       </c>
@@ -8892,7 +8900,7 @@
         <v>423187</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16">
       <c r="A159" s="2" t="s">
         <v>182</v>
       </c>
@@ -8938,7 +8946,7 @@
         <v>93901</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16">
       <c r="A160" s="2" t="s">
         <v>183</v>
       </c>
@@ -8988,7 +8996,7 @@
         <v>319940</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16">
       <c r="A161" s="2" t="s">
         <v>184</v>
       </c>
@@ -9032,7 +9040,7 @@
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16">
       <c r="A162" s="2" t="s">
         <v>185</v>
       </c>
@@ -9080,7 +9088,7 @@
         <v>21544</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16">
       <c r="A163" s="2" t="s">
         <v>186</v>
       </c>
@@ -9124,7 +9132,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16">
       <c r="A164" s="2" t="s">
         <v>187</v>
       </c>
@@ -9160,7 +9168,7 @@
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16">
       <c r="A165" s="2" t="s">
         <v>188</v>
       </c>
@@ -9208,7 +9216,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16">
       <c r="A166" s="2" t="s">
         <v>189</v>
       </c>
@@ -9252,7 +9260,7 @@
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16">
       <c r="A167" s="2" t="s">
         <v>190</v>
       </c>
@@ -9296,7 +9304,7 @@
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16">
       <c r="A168" s="2" t="s">
         <v>191</v>
       </c>
@@ -9340,7 +9348,7 @@
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16">
       <c r="A169" s="2" t="s">
         <v>192</v>
       </c>
@@ -9384,7 +9392,7 @@
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16">
       <c r="A170" s="2" t="s">
         <v>193</v>
       </c>
@@ -9420,7 +9428,7 @@
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16">
       <c r="A171" s="2" t="s">
         <v>194</v>
       </c>
@@ -9456,7 +9464,7 @@
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16">
       <c r="A172" s="2" t="s">
         <v>195</v>
       </c>
@@ -9498,7 +9506,7 @@
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16">
       <c r="A173" s="2" t="s">
         <v>195</v>
       </c>
@@ -9542,7 +9550,7 @@
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16">
       <c r="A174" s="2" t="s">
         <v>196</v>
       </c>
@@ -9582,7 +9590,7 @@
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16">
       <c r="A175" s="2" t="s">
         <v>197</v>
       </c>
@@ -9618,7 +9626,7 @@
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16">
       <c r="A176" s="2" t="s">
         <v>198</v>
       </c>
@@ -9662,7 +9670,7 @@
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16">
       <c r="A177" s="2" t="s">
         <v>199</v>
       </c>
@@ -9698,7 +9706,7 @@
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16">
       <c r="A178" s="2" t="s">
         <v>200</v>
       </c>
@@ -9734,7 +9742,7 @@
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16">
       <c r="A179" s="2" t="s">
         <v>201</v>
       </c>
@@ -9776,7 +9784,7 @@
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16">
       <c r="A180" s="2" t="s">
         <v>202</v>
       </c>
@@ -9820,7 +9828,7 @@
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16">
       <c r="A181" s="2" t="s">
         <v>203</v>
       </c>
@@ -9860,7 +9868,7 @@
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16">
       <c r="A182" s="2" t="s">
         <v>204</v>
       </c>
@@ -9896,7 +9904,7 @@
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16">
       <c r="A183" s="2" t="s">
         <v>205</v>
       </c>
@@ -9934,7 +9942,7 @@
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16">
       <c r="A184" s="2" t="s">
         <v>206</v>
       </c>
@@ -9972,7 +9980,7 @@
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16">
       <c r="A185" s="2" t="s">
         <v>207</v>
       </c>
@@ -10012,7 +10020,7 @@
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16">
       <c r="A186" s="2" t="s">
         <v>208</v>
       </c>
@@ -10060,7 +10068,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16">
       <c r="A187" s="2" t="s">
         <v>208</v>
       </c>
@@ -10096,7 +10104,7 @@
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16">
       <c r="A188" s="2" t="s">
         <v>209</v>
       </c>
@@ -10138,7 +10146,7 @@
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16">
       <c r="A189" s="2" t="s">
         <v>210</v>
       </c>
@@ -10182,7 +10190,7 @@
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16">
       <c r="A190" s="2" t="s">
         <v>211</v>
       </c>
@@ -10222,7 +10230,7 @@
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16">
       <c r="A191" s="2" t="s">
         <v>212</v>
       </c>
@@ -10258,7 +10266,7 @@
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16">
       <c r="A192" s="2" t="s">
         <v>213</v>
       </c>
@@ -10294,7 +10302,7 @@
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16">
       <c r="A193" s="2" t="s">
         <v>214</v>
       </c>
@@ -10338,7 +10346,7 @@
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16">
       <c r="A194" s="2" t="s">
         <v>215</v>
       </c>
@@ -10374,7 +10382,7 @@
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16">
       <c r="A195" s="2" t="s">
         <v>216</v>
       </c>
@@ -10418,7 +10426,7 @@
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16">
       <c r="A196" s="2" t="s">
         <v>217</v>
       </c>
@@ -10454,7 +10462,7 @@
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16">
       <c r="A197" s="2" t="s">
         <v>218</v>
       </c>
@@ -10490,7 +10498,7 @@
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16">
       <c r="A198" s="2" t="s">
         <v>218</v>
       </c>
@@ -10532,7 +10540,7 @@
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16">
       <c r="A199" s="2" t="s">
         <v>219</v>
       </c>
@@ -10572,7 +10580,7 @@
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16">
       <c r="A200" s="2" t="s">
         <v>219</v>
       </c>
@@ -10610,7 +10618,7 @@
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16">
       <c r="A201" s="2" t="s">
         <v>220</v>
       </c>
@@ -10652,7 +10660,7 @@
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16">
       <c r="A202" s="2" t="s">
         <v>220</v>
       </c>
@@ -10688,7 +10696,7 @@
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16">
       <c r="A203" s="2" t="s">
         <v>221</v>
       </c>
@@ -10728,7 +10736,7 @@
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16">
       <c r="A204" s="2" t="s">
         <v>222</v>
       </c>
@@ -10764,7 +10772,7 @@
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16">
       <c r="A205" s="2" t="s">
         <v>223</v>
       </c>
@@ -10808,7 +10816,7 @@
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16">
       <c r="A206" s="2" t="s">
         <v>224</v>
       </c>
@@ -10844,7 +10852,7 @@
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16">
       <c r="A207" s="2" t="s">
         <v>225</v>
       </c>
@@ -10880,7 +10888,7 @@
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16">
       <c r="A208" s="2" t="s">
         <v>226</v>
       </c>
@@ -10926,7 +10934,7 @@
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16">
       <c r="A209" s="2" t="s">
         <v>226</v>
       </c>
@@ -10970,7 +10978,7 @@
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16">
       <c r="A210" s="2" t="s">
         <v>228</v>
       </c>
@@ -11014,7 +11022,7 @@
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16">
       <c r="A211" s="2" t="s">
         <v>229</v>
       </c>
@@ -11056,7 +11064,7 @@
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16">
       <c r="A212" s="2" t="s">
         <v>230</v>
       </c>
@@ -11100,7 +11108,7 @@
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16">
       <c r="A213" s="2" t="s">
         <v>231</v>
       </c>
@@ -11142,7 +11150,7 @@
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16">
       <c r="A214" s="2" t="s">
         <v>232</v>
       </c>
@@ -11188,7 +11196,7 @@
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16">
       <c r="A215" s="2" t="s">
         <v>233</v>
       </c>
@@ -11224,7 +11232,7 @@
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16">
       <c r="A216" s="2" t="s">
         <v>234</v>
       </c>
@@ -11268,7 +11276,7 @@
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16">
       <c r="A217" s="2" t="s">
         <v>236</v>
       </c>
@@ -11310,7 +11318,7 @@
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16">
       <c r="A218" s="2" t="s">
         <v>237</v>
       </c>
@@ -11354,7 +11362,7 @@
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16">
       <c r="A219" s="2" t="s">
         <v>237</v>
       </c>
@@ -11396,7 +11404,7 @@
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16">
       <c r="A220" s="2" t="s">
         <v>238</v>
       </c>
@@ -11440,7 +11448,7 @@
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16">
       <c r="A221" s="2" t="s">
         <v>239</v>
       </c>
@@ -11482,7 +11490,7 @@
       <c r="O221" s="2"/>
       <c r="P221" s="2"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16">
       <c r="A222" s="2" t="s">
         <v>241</v>
       </c>
@@ -11520,7 +11528,7 @@
       <c r="O222" s="2"/>
       <c r="P222" s="2"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16">
       <c r="A223" s="2" t="s">
         <v>242</v>
       </c>
@@ -11562,7 +11570,7 @@
       <c r="O223" s="2"/>
       <c r="P223" s="2"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16">
       <c r="A224" s="2" t="s">
         <v>243</v>
       </c>
@@ -11598,7 +11606,7 @@
       <c r="O224" s="2"/>
       <c r="P224" s="2"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16">
       <c r="A225" s="2" t="s">
         <v>244</v>
       </c>
@@ -11642,7 +11650,7 @@
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16">
       <c r="A226" s="2" t="s">
         <v>245</v>
       </c>
@@ -11678,7 +11686,7 @@
       <c r="O226" s="2"/>
       <c r="P226" s="2"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16">
       <c r="A227" s="2" t="s">
         <v>246</v>
       </c>
@@ -11722,7 +11730,7 @@
       <c r="O227" s="2"/>
       <c r="P227" s="2"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16">
       <c r="A228" s="2" t="s">
         <v>247</v>
       </c>
@@ -11764,7 +11772,7 @@
       <c r="O228" s="2"/>
       <c r="P228" s="2"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16">
       <c r="A229" s="2" t="s">
         <v>248</v>
       </c>
@@ -11800,7 +11808,7 @@
       <c r="O229" s="2"/>
       <c r="P229" s="2"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16">
       <c r="A230" s="2" t="s">
         <v>249</v>
       </c>
@@ -11844,7 +11852,7 @@
       <c r="O230" s="2"/>
       <c r="P230" s="2"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16">
       <c r="A231" s="2" t="s">
         <v>250</v>
       </c>
@@ -11886,7 +11894,7 @@
       <c r="O231" s="2"/>
       <c r="P231" s="2"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16">
       <c r="A232" s="2" t="s">
         <v>251</v>
       </c>
@@ -11928,7 +11936,7 @@
       <c r="O232" s="2"/>
       <c r="P232" s="2"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16">
       <c r="A233" s="2" t="s">
         <v>252</v>
       </c>
@@ -11964,7 +11972,7 @@
       <c r="O233" s="2"/>
       <c r="P233" s="2"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16">
       <c r="A234" s="2" t="s">
         <v>253</v>
       </c>
@@ -12000,7 +12008,7 @@
       <c r="O234" s="2"/>
       <c r="P234" s="2"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16">
       <c r="A235" s="2" t="s">
         <v>253</v>
       </c>
@@ -12036,7 +12044,7 @@
       <c r="O235" s="2"/>
       <c r="P235" s="2"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16">
       <c r="A236" s="2" t="s">
         <v>254</v>
       </c>
@@ -12072,7 +12080,7 @@
       <c r="O236" s="2"/>
       <c r="P236" s="2"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16">
       <c r="A237" s="2" t="s">
         <v>255</v>
       </c>
@@ -12110,7 +12118,7 @@
       <c r="O237" s="2"/>
       <c r="P237" s="2"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16">
       <c r="A238" s="2" t="s">
         <v>256</v>
       </c>
@@ -12154,7 +12162,7 @@
       <c r="O238" s="2"/>
       <c r="P238" s="2"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16">
       <c r="A239" s="2" t="s">
         <v>257</v>
       </c>
@@ -12194,7 +12202,7 @@
       <c r="O239" s="2"/>
       <c r="P239" s="2"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16">
       <c r="A240" s="2" t="s">
         <v>258</v>
       </c>
@@ -12230,7 +12238,7 @@
       <c r="O240" s="2"/>
       <c r="P240" s="2"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16">
       <c r="A241" s="2" t="s">
         <v>259</v>
       </c>
@@ -12270,7 +12278,7 @@
       <c r="O241" s="2"/>
       <c r="P241" s="2"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16">
       <c r="A242" s="2" t="s">
         <v>260</v>
       </c>
@@ -12312,7 +12320,7 @@
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16">
       <c r="A243" s="2" t="s">
         <v>262</v>
       </c>
@@ -12352,7 +12360,7 @@
       <c r="O243" s="2"/>
       <c r="P243" s="2"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16">
       <c r="A244" s="2" t="s">
         <v>263</v>
       </c>
@@ -12394,7 +12402,7 @@
       <c r="O244" s="2"/>
       <c r="P244" s="2"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16">
       <c r="A245" s="2" t="s">
         <v>265</v>
       </c>
@@ -12432,7 +12440,7 @@
       <c r="O245" s="2"/>
       <c r="P245" s="2"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16">
       <c r="A246" s="2" t="s">
         <v>266</v>
       </c>
@@ -12468,7 +12476,7 @@
       <c r="O246" s="2"/>
       <c r="P246" s="2"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16">
       <c r="A247" s="2" t="s">
         <v>267</v>
       </c>
@@ -12508,7 +12516,7 @@
       <c r="O247" s="2"/>
       <c r="P247" s="2"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16">
       <c r="A248" s="2" t="s">
         <v>268</v>
       </c>
@@ -12550,7 +12558,7 @@
       <c r="O248" s="2"/>
       <c r="P248" s="2"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16">
       <c r="A249" s="2" t="s">
         <v>269</v>
       </c>
@@ -12586,7 +12594,7 @@
       <c r="O249" s="2"/>
       <c r="P249" s="2"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16">
       <c r="A250" s="2" t="s">
         <v>270</v>
       </c>
@@ -12622,7 +12630,7 @@
       <c r="O250" s="2"/>
       <c r="P250" s="2"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16">
       <c r="A251" s="2" t="s">
         <v>271</v>
       </c>
@@ -12662,7 +12670,7 @@
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16">
       <c r="A252" s="2" t="s">
         <v>272</v>
       </c>
@@ -12702,7 +12710,7 @@
       <c r="O252" s="2"/>
       <c r="P252" s="2"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16">
       <c r="A253" s="2" t="s">
         <v>273</v>
       </c>
@@ -12742,7 +12750,7 @@
       <c r="O253" s="2"/>
       <c r="P253" s="2"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16">
       <c r="A254" s="2" t="s">
         <v>274</v>
       </c>
@@ -12776,7 +12784,7 @@
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16">
       <c r="A255" s="2" t="s">
         <v>275</v>
       </c>
@@ -12812,7 +12820,7 @@
       <c r="O255" s="2"/>
       <c r="P255" s="2"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16">
       <c r="A256" s="2" t="s">
         <v>275</v>
       </c>
@@ -12842,7 +12850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16">
       <c r="A257" s="2" t="s">
         <v>275</v>
       </c>
@@ -12872,7 +12880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16">
       <c r="A258" s="2" t="s">
         <v>275</v>
       </c>
@@ -12902,7 +12910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16">
       <c r="A259" s="2" t="s">
         <v>275</v>
       </c>
@@ -12932,7 +12940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16">
       <c r="A260" s="2" t="s">
         <v>275</v>
       </c>
@@ -12962,7 +12970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16">
       <c r="A261" s="2" t="s">
         <v>275</v>
       </c>
@@ -12992,7 +13000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16">
       <c r="A262" s="2" t="s">
         <v>275</v>
       </c>
@@ -13022,7 +13030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16">
       <c r="A263" s="2" t="s">
         <v>275</v>
       </c>
@@ -13052,7 +13060,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16">
       <c r="A264" s="2" t="s">
         <v>275</v>
       </c>
@@ -13082,7 +13090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16">
       <c r="A265" s="2" t="s">
         <v>275</v>
       </c>
@@ -13112,7 +13120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16">
       <c r="A266" s="2" t="s">
         <v>275</v>
       </c>
@@ -13142,7 +13150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16">
       <c r="A267" s="2" t="s">
         <v>275</v>
       </c>
@@ -13172,7 +13180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16">
       <c r="A268" s="2" t="s">
         <v>275</v>
       </c>
@@ -13202,7 +13210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16">
       <c r="A269" s="2" t="s">
         <v>275</v>
       </c>
@@ -13232,7 +13240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16">
       <c r="A270" s="2" t="s">
         <v>275</v>
       </c>
@@ -13262,7 +13270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16">
       <c r="A271" s="2" t="s">
         <v>275</v>
       </c>
@@ -13292,7 +13300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16">
       <c r="A272" s="2" t="s">
         <v>275</v>
       </c>
@@ -13322,7 +13330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16">
       <c r="A273" s="2" t="s">
         <v>275</v>
       </c>
@@ -13352,7 +13360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16">
       <c r="A274" s="2" t="s">
         <v>275</v>
       </c>
@@ -13382,7 +13390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16">
       <c r="A275" s="2" t="s">
         <v>275</v>
       </c>
@@ -13412,7 +13420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16">
       <c r="A276" s="2" t="s">
         <v>275</v>
       </c>

--- a/pass4.xlsx
+++ b/pass4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\py_apps\KD1662_bot\kd1662\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18782E8C-24DC-4D65-BDF2-384FA4507E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA83D2-47B6-4F23-BA65-0D909ACCE3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{3A69CBEA-0CDA-4B04-865D-156793F24807}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="277">
   <si>
     <t>Governor Name</t>
   </si>
@@ -865,9 +865,6 @@
   </si>
   <si>
     <t>Governor77933580</t>
-  </si>
-  <si>
-    <t>dead1662</t>
   </si>
   <si>
     <t>Duboish</t>
@@ -1269,10 +1266,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P276"/>
+  <dimension ref="A1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A252" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255:XFD276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2316,7 +2313,7 @@
     </row>
     <row r="22" spans="1:16" ht="15">
       <c r="A22" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B22" s="2">
         <v>48975732</v>
@@ -2910,7 +2907,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2">
         <v>38161087</v>
@@ -12783,672 +12780,6 @@
       <c r="N254" s="2"/>
       <c r="O254" s="2"/>
       <c r="P254" s="2"/>
-    </row>
-    <row r="255" spans="1:16">
-      <c r="A255" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B255" s="2">
-        <v>186268387</v>
-      </c>
-      <c r="C255" s="2">
-        <v>117786</v>
-      </c>
-      <c r="D255" s="2"/>
-      <c r="E255" s="2">
-        <v>0</v>
-      </c>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2">
-        <v>0</v>
-      </c>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2">
-        <v>0</v>
-      </c>
-      <c r="K255" s="2">
-        <v>0</v>
-      </c>
-      <c r="L255" s="2">
-        <v>19</v>
-      </c>
-      <c r="M255" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-    </row>
-    <row r="256" spans="1:16">
-      <c r="A256" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B256" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C256" s="2">
-        <v>0</v>
-      </c>
-      <c r="D256" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E256" s="2">
-        <v>7</v>
-      </c>
-      <c r="F256" s="2"/>
-      <c r="G256" s="2"/>
-      <c r="H256" s="2"/>
-      <c r="I256" s="2"/>
-      <c r="J256" s="2"/>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="2"/>
-      <c r="N256" s="2"/>
-      <c r="O256" s="2"/>
-      <c r="P256" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:16">
-      <c r="A257" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B257" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C257" s="2">
-        <v>0</v>
-      </c>
-      <c r="D257" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E257" s="2">
-        <v>7</v>
-      </c>
-      <c r="F257" s="2"/>
-      <c r="G257" s="2"/>
-      <c r="H257" s="2"/>
-      <c r="I257" s="2"/>
-      <c r="J257" s="2"/>
-      <c r="K257" s="2"/>
-      <c r="L257" s="2"/>
-      <c r="M257" s="2"/>
-      <c r="N257" s="2"/>
-      <c r="O257" s="2"/>
-      <c r="P257" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:16">
-      <c r="A258" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B258" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C258" s="2">
-        <v>0</v>
-      </c>
-      <c r="D258" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E258" s="2">
-        <v>7</v>
-      </c>
-      <c r="F258" s="2"/>
-      <c r="G258" s="2"/>
-      <c r="H258" s="2"/>
-      <c r="I258" s="2"/>
-      <c r="J258" s="2"/>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="2"/>
-      <c r="N258" s="2"/>
-      <c r="O258" s="2"/>
-      <c r="P258" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="259" spans="1:16">
-      <c r="A259" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B259" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C259" s="2">
-        <v>0</v>
-      </c>
-      <c r="D259" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E259" s="2">
-        <v>7</v>
-      </c>
-      <c r="F259" s="2"/>
-      <c r="G259" s="2"/>
-      <c r="H259" s="2"/>
-      <c r="I259" s="2"/>
-      <c r="J259" s="2"/>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="2"/>
-      <c r="N259" s="2"/>
-      <c r="O259" s="2"/>
-      <c r="P259" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="260" spans="1:16">
-      <c r="A260" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B260" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C260" s="2">
-        <v>0</v>
-      </c>
-      <c r="D260" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E260" s="2">
-        <v>7</v>
-      </c>
-      <c r="F260" s="2"/>
-      <c r="G260" s="2"/>
-      <c r="H260" s="2"/>
-      <c r="I260" s="2"/>
-      <c r="J260" s="2"/>
-      <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
-      <c r="M260" s="2"/>
-      <c r="N260" s="2"/>
-      <c r="O260" s="2"/>
-      <c r="P260" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="261" spans="1:16">
-      <c r="A261" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B261" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C261" s="2">
-        <v>0</v>
-      </c>
-      <c r="D261" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E261" s="2">
-        <v>7</v>
-      </c>
-      <c r="F261" s="2"/>
-      <c r="G261" s="2"/>
-      <c r="H261" s="2"/>
-      <c r="I261" s="2"/>
-      <c r="J261" s="2"/>
-      <c r="K261" s="2"/>
-      <c r="L261" s="2"/>
-      <c r="M261" s="2"/>
-      <c r="N261" s="2"/>
-      <c r="O261" s="2"/>
-      <c r="P261" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="262" spans="1:16">
-      <c r="A262" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B262" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C262" s="2">
-        <v>0</v>
-      </c>
-      <c r="D262" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E262" s="2">
-        <v>7</v>
-      </c>
-      <c r="F262" s="2"/>
-      <c r="G262" s="2"/>
-      <c r="H262" s="2"/>
-      <c r="I262" s="2"/>
-      <c r="J262" s="2"/>
-      <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
-      <c r="M262" s="2"/>
-      <c r="N262" s="2"/>
-      <c r="O262" s="2"/>
-      <c r="P262" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16">
-      <c r="A263" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B263" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C263" s="2">
-        <v>0</v>
-      </c>
-      <c r="D263" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E263" s="2">
-        <v>7</v>
-      </c>
-      <c r="F263" s="2"/>
-      <c r="G263" s="2"/>
-      <c r="H263" s="2"/>
-      <c r="I263" s="2"/>
-      <c r="J263" s="2"/>
-      <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
-      <c r="M263" s="2"/>
-      <c r="N263" s="2"/>
-      <c r="O263" s="2"/>
-      <c r="P263" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:16">
-      <c r="A264" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B264" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C264" s="2">
-        <v>0</v>
-      </c>
-      <c r="D264" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E264" s="2">
-        <v>7</v>
-      </c>
-      <c r="F264" s="2"/>
-      <c r="G264" s="2"/>
-      <c r="H264" s="2"/>
-      <c r="I264" s="2"/>
-      <c r="J264" s="2"/>
-      <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
-      <c r="M264" s="2"/>
-      <c r="N264" s="2"/>
-      <c r="O264" s="2"/>
-      <c r="P264" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:16">
-      <c r="A265" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B265" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C265" s="2">
-        <v>0</v>
-      </c>
-      <c r="D265" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E265" s="2">
-        <v>7</v>
-      </c>
-      <c r="F265" s="2"/>
-      <c r="G265" s="2"/>
-      <c r="H265" s="2"/>
-      <c r="I265" s="2"/>
-      <c r="J265" s="2"/>
-      <c r="K265" s="2"/>
-      <c r="L265" s="2"/>
-      <c r="M265" s="2"/>
-      <c r="N265" s="2"/>
-      <c r="O265" s="2"/>
-      <c r="P265" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:16">
-      <c r="A266" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B266" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C266" s="2">
-        <v>0</v>
-      </c>
-      <c r="D266" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E266" s="2">
-        <v>7</v>
-      </c>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:16">
-      <c r="A267" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B267" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C267" s="2">
-        <v>0</v>
-      </c>
-      <c r="D267" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E267" s="2">
-        <v>7</v>
-      </c>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="268" spans="1:16">
-      <c r="A268" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B268" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C268" s="2">
-        <v>0</v>
-      </c>
-      <c r="D268" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E268" s="2">
-        <v>7</v>
-      </c>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:16">
-      <c r="A269" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B269" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C269" s="2">
-        <v>0</v>
-      </c>
-      <c r="D269" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E269" s="2">
-        <v>7</v>
-      </c>
-      <c r="F269" s="2"/>
-      <c r="G269" s="2"/>
-      <c r="H269" s="2"/>
-      <c r="I269" s="2"/>
-      <c r="J269" s="2"/>
-      <c r="K269" s="2"/>
-      <c r="L269" s="2"/>
-      <c r="M269" s="2"/>
-      <c r="N269" s="2"/>
-      <c r="O269" s="2"/>
-      <c r="P269" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:16">
-      <c r="A270" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B270" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C270" s="2">
-        <v>0</v>
-      </c>
-      <c r="D270" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E270" s="2">
-        <v>7</v>
-      </c>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:16">
-      <c r="A271" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B271" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C271" s="2">
-        <v>0</v>
-      </c>
-      <c r="D271" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E271" s="2">
-        <v>7</v>
-      </c>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="272" spans="1:16">
-      <c r="A272" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B272" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C272" s="2">
-        <v>0</v>
-      </c>
-      <c r="D272" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E272" s="2">
-        <v>7</v>
-      </c>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2"/>
-      <c r="H272" s="2"/>
-      <c r="I272" s="2"/>
-      <c r="J272" s="2"/>
-      <c r="K272" s="2"/>
-      <c r="L272" s="2"/>
-      <c r="M272" s="2"/>
-      <c r="N272" s="2"/>
-      <c r="O272" s="2"/>
-      <c r="P272" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16">
-      <c r="A273" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B273" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C273" s="2">
-        <v>0</v>
-      </c>
-      <c r="D273" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E273" s="2">
-        <v>7</v>
-      </c>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="274" spans="1:16">
-      <c r="A274" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B274" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C274" s="2">
-        <v>0</v>
-      </c>
-      <c r="D274" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E274" s="2">
-        <v>7</v>
-      </c>
-      <c r="F274" s="2"/>
-      <c r="G274" s="2"/>
-      <c r="H274" s="2"/>
-      <c r="I274" s="2"/>
-      <c r="J274" s="2"/>
-      <c r="K274" s="2"/>
-      <c r="L274" s="2"/>
-      <c r="M274" s="2"/>
-      <c r="N274" s="2"/>
-      <c r="O274" s="2"/>
-      <c r="P274" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:16">
-      <c r="A275" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B275" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C275" s="2">
-        <v>0</v>
-      </c>
-      <c r="D275" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E275" s="2">
-        <v>7</v>
-      </c>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16">
-      <c r="A276" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B276" s="2">
-        <v>201914393</v>
-      </c>
-      <c r="C276" s="2">
-        <v>0</v>
-      </c>
-      <c r="D276" s="2">
-        <v>45452</v>
-      </c>
-      <c r="E276" s="2">
-        <v>7</v>
-      </c>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
